--- a/src/data/dataFile/xlsx/Region Of Viet Nam.xlsx
+++ b/src/data/dataFile/xlsx/Region Of Viet Nam.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>PathImage</t>
+  </si>
+  <si>
     <t>the southwest</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>the northwest</t>
@@ -156,137 +162,176 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/dataFile/xlsx/Region Of Viet Nam.xlsx
+++ b/src/data/dataFile/xlsx/Region Of Viet Nam.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>English</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>nam trung bộ</t>
-  </si>
-  <si>
-    <t>the north</t>
-  </si>
-  <si>
-    <t>miền bắc</t>
   </si>
   <si>
     <t>the mekong river delta</t>
@@ -320,20 +314,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
